--- a/biology/Zoologie/Breynia_(oursin)/Breynia_(oursin).xlsx
+++ b/biology/Zoologie/Breynia_(oursin)/Breynia_(oursin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Breynia est un genre d'oursins irréguliers de la famille des Loveniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers en forme de cœur vu du dessus. Une large bouche filtreuse est située sur la face inférieure de l'animal, et l'anus en position terminale arrière. Ils sont couverts de radioles (piquants) courtes et peu piquantes, et vivent enterrés dans le sédiment, qu'ils filtrent pour se nourrir : ils sont rarement aperçus vivants, mais leurs squelettes (« tests ») sont souvent retrouvés sur les plages.
 Le test (coquille) est irrégulièrement ovale, avec un sulcus antérieur peu profond et une légère excroissance inféro-postérieure. 
@@ -524,8 +538,8 @@
 La plaque labrale est étroite et longue, en simple contact avec les plaques sternales. Les plaques sternales vont par paires, assez étroites et triangulaires, entièrement tuberculées. 
 La tuberculation aborale est généralement hétérogène, avec des tubercules grossiers éparpillés sur tous les ambulacres sauf le postérieur. Les tubercules primaires sont profondément enfoncés. 
 Les tubercules oraux sont réduits et non enfoncés, alignés. 
-Le fasciole sub-anal est bien développé, en forme d'écu, et le fasciole péripélateux n'est pas indenté avec les ambulacres[2].
-Ce genre est apparu à l'Oligocène, et est essentiellement réparti entre l'Inde et l'Indonésie[2].
+Le fasciole sub-anal est bien développé, en forme d'écu, et le fasciole péripélateux n'est pas indenté avec les ambulacres.
+Ce genre est apparu à l'Oligocène, et est essentiellement réparti entre l'Inde et l'Indonésie.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mars 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mars 2018) :
 Breynia australasiae (Leach, 1815) -- Australie
 Breynia birmanica Vredenburg, 1922 †
 Breynia cordata Hayasaka &amp; A. Morishita, 1947 †
